--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -20,9 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKSHOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPENDENCIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MES2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO2</t>
   </si>
   <si>
     <t xml:space="preserve">Junior Piccini</t>
@@ -46,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,32 +159,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.69"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">Junior Piccini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste de workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senai rs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setembro</t>
   </si>
   <si>
     <t xml:space="preserve">Gabriel Piccini</t>
@@ -133,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,61 +175,142 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -52,13 +52,13 @@
     <t xml:space="preserve">ANO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Junior Piccini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste de workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senai rs</t>
+    <t xml:space="preserve">Clemar Junior de Mattos Piccini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aprendendo fazer Certificados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senai RS – PDI</t>
   </si>
   <si>
     <t xml:space="preserve">setembro</t>
@@ -67,7 +67,43 @@
     <t xml:space="preserve">Gabriel Piccini</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste Testudo</t>
+    <t xml:space="preserve">outubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiago Flexxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">novembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Prezzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dezembro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fevereiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabiano Caon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">março</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Granoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abril</t>
   </si>
 </sst>
 </file>
@@ -168,21 +204,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,7 +299,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
@@ -283,7 +319,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -295,7 +331,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -310,13 +346,173 @@
         <v>13</v>
       </c>
       <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="0" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
